--- a/Kotlin/res/data.xlsx
+++ b/Kotlin/res/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="142">
   <si>
     <t>Text Key</t>
   </si>
@@ -25,13 +25,421 @@
     <t>app_name</t>
   </si>
   <si>
-    <t>Example</t>
+    <t>Tap Roulette - Spin Wheels</t>
   </si>
   <si>
     <t>this_action_may_contain_ads</t>
   </si>
   <si>
-    <t>This action may contain ads…</t>
+    <t>This action may contain ads</t>
+  </si>
+  <si>
+    <t>chooser</t>
+  </si>
+  <si>
+    <t>Chooser</t>
+  </si>
+  <si>
+    <t>homograft</t>
+  </si>
+  <si>
+    <t>Homograft</t>
+  </si>
+  <si>
+    <t>ranking</t>
+  </si>
+  <si>
+    <t>Ranking</t>
+  </si>
+  <si>
+    <t>spinner_wheel</t>
+  </si>
+  <si>
+    <t>Spinner Wheel</t>
+  </si>
+  <si>
+    <t>settings</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>new_roulette</t>
+  </si>
+  <si>
+    <t>New Roulette</t>
+  </si>
+  <si>
+    <t>roullete</t>
+  </si>
+  <si>
+    <t>Roullete</t>
+  </si>
+  <si>
+    <t>replay</t>
+  </si>
+  <si>
+    <t>Replay</t>
+  </si>
+  <si>
+    <t>add_item</t>
+  </si>
+  <si>
+    <t>Add item</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>shock_roulette</t>
+  </si>
+  <si>
+    <t>Shock Roulette</t>
+  </si>
+  <si>
+    <t>roulette</t>
+  </si>
+  <si>
+    <t>Roulette</t>
+  </si>
+  <si>
+    <t>the_winner_is</t>
+  </si>
+  <si>
+    <t>The winner is</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Name:</t>
+  </si>
+  <si>
+    <t>player_1</t>
+  </si>
+  <si>
+    <t>Player 1</t>
+  </si>
+  <si>
+    <t>player_2</t>
+  </si>
+  <si>
+    <t>Player 2</t>
+  </si>
+  <si>
+    <t>please_enter_all_name</t>
+  </si>
+  <si>
+    <t>Please enter all name</t>
+  </si>
+  <si>
+    <t>are_you_enjoying_our_app</t>
+  </si>
+  <si>
+    <t>Are you enjoying our app?</t>
+  </si>
+  <si>
+    <t>please_give_us_5_stars_if_you_like_amp_let_us_know_your_feedback</t>
+  </si>
+  <si>
+    <t>Please give us 5-stars if you like &amp; let us know your feedback</t>
+  </si>
+  <si>
+    <t>btn_rate</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>btn_cancel</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>btn_feedback</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>tap_here_to_exit</t>
+  </si>
+  <si>
+    <t>Tap here to exit</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>Languages</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>feedback</t>
+  </si>
+  <si>
+    <t>privacy_policy</t>
+  </si>
+  <si>
+    <t>Privacy Policy</t>
+  </si>
+  <si>
+    <t>terms_and_conditions</t>
+  </si>
+  <si>
+    <t>Terms and Conditions</t>
+  </si>
+  <si>
+    <t>page_3_3</t>
+  </si>
+  <si>
+    <t>Page: 3/3</t>
+  </si>
+  <si>
+    <t>page_2_3</t>
+  </si>
+  <si>
+    <t>Page: 2/3</t>
+  </si>
+  <si>
+    <t>page_1_3</t>
+  </si>
+  <si>
+    <t>Page: 1/3</t>
+  </si>
+  <si>
+    <t>language_arabic</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>language_ukrainian</t>
+  </si>
+  <si>
+    <t>Ukrainian</t>
+  </si>
+  <si>
+    <t>language_turkish</t>
+  </si>
+  <si>
+    <t>Turkish</t>
+  </si>
+  <si>
+    <t>language_thai</t>
+  </si>
+  <si>
+    <t>Thai</t>
+  </si>
+  <si>
+    <t>language_spanish</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>language_russian</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>language_portuguese</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>language_polish</t>
+  </si>
+  <si>
+    <t>Polish</t>
+  </si>
+  <si>
+    <t>language_latvian</t>
+  </si>
+  <si>
+    <t>Latvian</t>
+  </si>
+  <si>
+    <t>language_lao</t>
+  </si>
+  <si>
+    <t>Lao</t>
+  </si>
+  <si>
+    <t>language_malay</t>
+  </si>
+  <si>
+    <t>Malay</t>
+  </si>
+  <si>
+    <t>language_korean</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>language_khmer</t>
+  </si>
+  <si>
+    <t>Khmer</t>
+  </si>
+  <si>
+    <t>language_kannada</t>
+  </si>
+  <si>
+    <t>Kannada</t>
+  </si>
+  <si>
+    <t>language_japanese</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>language_italian</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>language_indonesian</t>
+  </si>
+  <si>
+    <t>Indonesian</t>
+  </si>
+  <si>
+    <t>language_hindi</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>language_greek</t>
+  </si>
+  <si>
+    <t>Greek</t>
+  </si>
+  <si>
+    <t>language_german</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>language_french</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>language_finnish</t>
+  </si>
+  <si>
+    <t>Finnish</t>
+  </si>
+  <si>
+    <t>language_estonian</t>
+  </si>
+  <si>
+    <t>Estonian</t>
+  </si>
+  <si>
+    <t>language_dutch</t>
+  </si>
+  <si>
+    <t>Dutch</t>
+  </si>
+  <si>
+    <t>language_czech</t>
+  </si>
+  <si>
+    <t>Czech</t>
+  </si>
+  <si>
+    <t>language_chinese</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>language_english</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>language_vietnamese</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>got_it</t>
+  </si>
+  <si>
+    <t>Got it</t>
+  </si>
+  <si>
+    <t>how_to_play</t>
+  </si>
+  <si>
+    <t>How to play?</t>
+  </si>
+  <si>
+    <t>tutorial</t>
+  </si>
+  <si>
+    <t>When you and your friends are deciding who is \"it\", place and hold your fingers on the screen for at least 3 seconds, then the Spin Wheel will choose one for you!</t>
+  </si>
+  <si>
+    <t>play_again</t>
+  </si>
+  <si>
+    <t>Play again</t>
+  </si>
+  <si>
+    <t>please_touch_more_point</t>
+  </si>
+  <si>
+    <t>Please touch more point</t>
+  </si>
+  <si>
+    <t>starting</t>
+  </si>
+  <si>
+    <t>Starting</t>
+  </si>
+  <si>
+    <t>intro1</t>
+  </si>
+  <si>
+    <t>It brings a fun, social, and exciting computing experience like you\'ve never had before. Get ready to explore endless possibilities and enjoy technology in a whole new light.</t>
+  </si>
+  <si>
+    <t>intro2</t>
+  </si>
+  <si>
+    <t>Those lively colors are used in Spin Wheel with fun effects and sounds. Each spin bursts with vibrant hues and playful audio, creating an engaging and dynamic experience.</t>
+  </si>
+  <si>
+    <t>intro3</t>
+  </si>
+  <si>
+    <t>The winner is chosen randomly when players join the game. Each participant has an equal chance, adding to the excitement and unpredictability.</t>
   </si>
 </sst>
 </file>
@@ -363,7 +771,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,6 +801,558 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
